--- a/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
+++ b/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="5205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="register_OFOS" sheetId="7" r:id="rId3"/>
+    <sheet name="OFOS_Login" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Zlatan</t>
   </si>
@@ -35,16 +37,39 @@
   </si>
   <si>
     <t>yogbelavanaki@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejaswi</t>
+  </si>
+  <si>
+    <t>S Rao</t>
+  </si>
+  <si>
+    <t>tejaswisrao1306@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejaswi@123</t>
+  </si>
+  <si>
+    <t>jalahalli,Bangalore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,16 +92,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,7 +388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -384,7 +415,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,4 +446,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>